--- a/single_question.xlsx
+++ b/single_question.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104BF5F7-11C4-4874-914C-66D82D094046}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA9DC50-F67C-4C07-9D53-3A7C423F2542}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17244" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2832" yWindow="4260" windowWidth="17244" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,9 +231,6 @@
     <t>78. 从历史发展的角度看，资本主义生产资料所有制是不断演进和变化的。当今资本主义社会居主导地位的资本所有制形式是（  ）</t>
   </si>
   <si>
-    <t>79. 20 世纪 70 年代以来，西方资本主义国家的金融资本急剧膨胀，这一方面促进了资本主义的发展，另一方面造成了经济过度虚拟化，致使金融危机频繁发生,西方资本主义金融资本快速发展壮大的重要制度条件是（  ）</t>
-  </si>
-  <si>
     <t>80. 1929-1933 年资本主义经济危机之后，为国家垄断资本主义奠定理论基础的是（  ）</t>
   </si>
   <si>
@@ -865,9 +862,6 @@
   </si>
   <si>
     <t>这一方面促进了资本主义的发展，另一方面造成了经济过度虚拟化，致使金</t>
-  </si>
-  <si>
-    <t>融危机频繁发生,西方资本主义金融资本快速发展壮大的重要制度条件是（</t>
   </si>
   <si>
     <t>80. 1929-1933 年资本主义经济危机之后，为国家垄断资本主义奠</t>
@@ -909,6 +903,14 @@
   </si>
   <si>
     <t>内容。造成这一变化的基础是(  )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79. 20 世纪 70 年代以来，西方资本主义国家的金融资本急剧膨胀，这一方面促进了资本主义的发展，另一方面造成了经济过度虚拟化，致使金融危机频繁发生，西方资本主义金融资本快速发展壮大的重要制度条件是（  ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融危机频繁发生，西方资本主义金融资本快速发展壮大的重要制度条件是（</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1299,50 +1301,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
         <v>76</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>77</v>
-      </c>
-      <c r="H1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>90</v>
-      </c>
-      <c r="D2" t="s">
-        <v>91</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1385,22 +1387,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
         <v>92</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>93</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>94</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>95</v>
-      </c>
-      <c r="F4" t="s">
-        <v>96</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
@@ -1411,10 +1413,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -1492,10 +1494,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
         <v>97</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -1544,10 +1546,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
         <v>99</v>
-      </c>
-      <c r="C10" t="s">
-        <v>100</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -1570,13 +1572,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
         <v>101</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>102</v>
-      </c>
-      <c r="D11" t="s">
-        <v>103</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
@@ -1648,10 +1650,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
@@ -1700,13 +1702,13 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
         <v>105</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>106</v>
-      </c>
-      <c r="D16" t="s">
-        <v>107</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
@@ -1726,10 +1728,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
         <v>108</v>
-      </c>
-      <c r="C17" t="s">
-        <v>109</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
@@ -1752,13 +1754,13 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
         <v>110</v>
       </c>
-      <c r="C18" t="s">
-        <v>111</v>
-      </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
         <v>0</v>
@@ -1778,10 +1780,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
         <v>112</v>
-      </c>
-      <c r="C19" t="s">
-        <v>113</v>
       </c>
       <c r="D19" t="s">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
         <v>114</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>115</v>
-      </c>
-      <c r="D20" t="s">
-        <v>116</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
@@ -1827,13 +1829,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D21" t="s">
         <v>0</v>
@@ -1856,42 +1858,42 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
         <v>118</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>119</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>120</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>121</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>122</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>123</v>
-      </c>
-      <c r="H22" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
         <v>125</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>126</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>127</v>
-      </c>
-      <c r="E23" t="s">
-        <v>128</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
@@ -1908,10 +1910,10 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
         <v>129</v>
-      </c>
-      <c r="C24" t="s">
-        <v>130</v>
       </c>
       <c r="D24" t="s">
         <v>0</v>
@@ -1957,13 +1959,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" t="s">
         <v>131</v>
-      </c>
-      <c r="C26" t="s">
-        <v>132</v>
       </c>
       <c r="D26" t="s">
         <v>0</v>
@@ -1986,10 +1988,10 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
         <v>133</v>
-      </c>
-      <c r="C27" t="s">
-        <v>134</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
@@ -2009,13 +2011,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
         <v>135</v>
-      </c>
-      <c r="C28" t="s">
-        <v>136</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
@@ -2064,10 +2066,10 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
         <v>137</v>
-      </c>
-      <c r="C30" t="s">
-        <v>138</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
@@ -2090,19 +2092,19 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" t="s">
         <v>139</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>140</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>141</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>142</v>
-      </c>
-      <c r="F31" t="s">
-        <v>143</v>
       </c>
       <c r="G31" t="s">
         <v>0</v>
@@ -2116,22 +2118,22 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" t="s">
         <v>144</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>145</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>146</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>147</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>148</v>
-      </c>
-      <c r="G32" t="s">
-        <v>149</v>
       </c>
       <c r="H32" t="s">
         <v>0</v>
@@ -2142,19 +2144,19 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" t="s">
         <v>150</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>151</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>152</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>153</v>
-      </c>
-      <c r="F33" t="s">
-        <v>154</v>
       </c>
       <c r="G33" t="s">
         <v>0</v>
@@ -2194,13 +2196,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" t="s">
         <v>155</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>156</v>
-      </c>
-      <c r="D35" t="s">
-        <v>157</v>
       </c>
       <c r="E35" t="s">
         <v>0</v>
@@ -2246,16 +2248,16 @@
         <v>29</v>
       </c>
       <c r="B37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" t="s">
         <v>158</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>159</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>160</v>
-      </c>
-      <c r="E37" t="s">
-        <v>161</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -2272,19 +2274,19 @@
         <v>30</v>
       </c>
       <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
         <v>162</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>163</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>164</v>
       </c>
-      <c r="E38" t="s">
-        <v>165</v>
-      </c>
       <c r="F38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G38" t="s">
         <v>0</v>
@@ -2298,10 +2300,10 @@
         <v>31</v>
       </c>
       <c r="B39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" t="s">
         <v>166</v>
-      </c>
-      <c r="C39" t="s">
-        <v>167</v>
       </c>
       <c r="D39" t="s">
         <v>0</v>
@@ -2324,13 +2326,13 @@
         <v>32</v>
       </c>
       <c r="B40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" t="s">
         <v>168</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>169</v>
-      </c>
-      <c r="D40" t="s">
-        <v>170</v>
       </c>
       <c r="E40" t="s">
         <v>0</v>
@@ -2350,13 +2352,13 @@
         <v>33</v>
       </c>
       <c r="B41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" t="s">
         <v>171</v>
       </c>
-      <c r="C41" t="s">
-        <v>172</v>
-      </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
         <v>0</v>
@@ -2402,16 +2404,16 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" t="s">
         <v>173</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>174</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>175</v>
-      </c>
-      <c r="E43" t="s">
-        <v>176</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -2428,19 +2430,19 @@
         <v>36</v>
       </c>
       <c r="B44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" t="s">
         <v>177</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>178</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>179</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>180</v>
-      </c>
-      <c r="F44" t="s">
-        <v>181</v>
       </c>
       <c r="G44" t="s">
         <v>0</v>
@@ -2454,10 +2456,10 @@
         <v>37</v>
       </c>
       <c r="B45" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" t="s">
         <v>182</v>
-      </c>
-      <c r="C45" t="s">
-        <v>183</v>
       </c>
       <c r="D45" t="s">
         <v>0</v>
@@ -2480,13 +2482,13 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" t="s">
         <v>184</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>185</v>
-      </c>
-      <c r="D46" t="s">
-        <v>186</v>
       </c>
       <c r="E46" t="s">
         <v>0</v>
@@ -2558,10 +2560,10 @@
         <v>41</v>
       </c>
       <c r="B49" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" t="s">
         <v>187</v>
-      </c>
-      <c r="C49" t="s">
-        <v>188</v>
       </c>
       <c r="D49" t="s">
         <v>0</v>
@@ -2584,13 +2586,13 @@
         <v>42</v>
       </c>
       <c r="B50" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" t="s">
         <v>189</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>190</v>
-      </c>
-      <c r="D50" t="s">
-        <v>191</v>
       </c>
       <c r="E50" t="s">
         <v>0</v>
@@ -2610,10 +2612,10 @@
         <v>43</v>
       </c>
       <c r="B51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" t="s">
         <v>192</v>
-      </c>
-      <c r="C51" t="s">
-        <v>193</v>
       </c>
       <c r="D51" t="s">
         <v>0</v>
@@ -2636,13 +2638,13 @@
         <v>44</v>
       </c>
       <c r="B52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" t="s">
         <v>194</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>195</v>
-      </c>
-      <c r="D52" t="s">
-        <v>196</v>
       </c>
       <c r="E52" t="s">
         <v>0</v>
@@ -2662,19 +2664,19 @@
         <v>45</v>
       </c>
       <c r="B53" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" t="s">
         <v>197</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>198</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>199</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>200</v>
-      </c>
-      <c r="F53" t="s">
-        <v>201</v>
       </c>
       <c r="G53" t="s">
         <v>0</v>
@@ -2685,16 +2687,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" t="s">
         <v>202</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>203</v>
-      </c>
-      <c r="D54" t="s">
-        <v>204</v>
       </c>
       <c r="E54" t="s">
         <v>0</v>
@@ -2714,16 +2716,16 @@
         <v>46</v>
       </c>
       <c r="B55" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" t="s">
         <v>205</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>206</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>207</v>
-      </c>
-      <c r="E55" t="s">
-        <v>208</v>
       </c>
       <c r="F55" t="s">
         <v>0</v>
@@ -2740,13 +2742,13 @@
         <v>47</v>
       </c>
       <c r="B56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" t="s">
         <v>209</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>210</v>
-      </c>
-      <c r="D56" t="s">
-        <v>211</v>
       </c>
       <c r="E56" t="s">
         <v>0</v>
@@ -2766,16 +2768,16 @@
         <v>48</v>
       </c>
       <c r="B57" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" t="s">
         <v>212</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>213</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>214</v>
-      </c>
-      <c r="E57" t="s">
-        <v>215</v>
       </c>
       <c r="F57" t="s">
         <v>0</v>
@@ -2792,19 +2794,19 @@
         <v>49</v>
       </c>
       <c r="B58" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" t="s">
         <v>216</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>217</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>218</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>219</v>
-      </c>
-      <c r="F58" t="s">
-        <v>220</v>
       </c>
       <c r="G58" t="s">
         <v>0</v>
@@ -2818,16 +2820,16 @@
         <v>50</v>
       </c>
       <c r="B59" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" t="s">
         <v>221</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>222</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>223</v>
-      </c>
-      <c r="E59" t="s">
-        <v>224</v>
       </c>
       <c r="F59" t="s">
         <v>0</v>
@@ -2841,10 +2843,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
         <v>0</v>
@@ -2867,28 +2869,28 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" t="s">
         <v>225</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>226</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>227</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>228</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>229</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>230</v>
-      </c>
-      <c r="H61" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2896,16 +2898,16 @@
         <v>51</v>
       </c>
       <c r="B62" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62" t="s">
         <v>232</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>233</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>234</v>
-      </c>
-      <c r="E62" t="s">
-        <v>235</v>
       </c>
       <c r="F62" t="s">
         <v>0</v>
@@ -2922,16 +2924,16 @@
         <v>52</v>
       </c>
       <c r="B63" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" t="s">
         <v>236</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>237</v>
       </c>
-      <c r="D63" t="s">
-        <v>238</v>
-      </c>
       <c r="E63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F63" t="s">
         <v>0</v>
@@ -2945,19 +2947,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" t="s">
         <v>239</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>240</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>241</v>
-      </c>
-      <c r="E64" t="s">
-        <v>242</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -2974,13 +2976,13 @@
         <v>53</v>
       </c>
       <c r="B65" t="s">
+        <v>242</v>
+      </c>
+      <c r="C65" t="s">
         <v>243</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>244</v>
-      </c>
-      <c r="D65" t="s">
-        <v>245</v>
       </c>
       <c r="E65" t="s">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         <v>55</v>
       </c>
       <c r="B67" t="s">
+        <v>245</v>
+      </c>
+      <c r="C67" t="s">
         <v>246</v>
-      </c>
-      <c r="C67" t="s">
-        <v>247</v>
       </c>
       <c r="D67" t="s">
         <v>0</v>
@@ -3052,10 +3054,10 @@
         <v>56</v>
       </c>
       <c r="B68" t="s">
+        <v>247</v>
+      </c>
+      <c r="C68" t="s">
         <v>248</v>
-      </c>
-      <c r="C68" t="s">
-        <v>249</v>
       </c>
       <c r="D68" t="s">
         <v>0</v>
@@ -3078,10 +3080,10 @@
         <v>57</v>
       </c>
       <c r="B69" t="s">
+        <v>249</v>
+      </c>
+      <c r="C69" t="s">
         <v>250</v>
-      </c>
-      <c r="C69" t="s">
-        <v>251</v>
       </c>
       <c r="D69" t="s">
         <v>0</v>
@@ -3104,13 +3106,13 @@
         <v>58</v>
       </c>
       <c r="B70" t="s">
+        <v>251</v>
+      </c>
+      <c r="C70" t="s">
         <v>252</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>253</v>
-      </c>
-      <c r="D70" t="s">
-        <v>254</v>
       </c>
       <c r="E70" t="s">
         <v>0</v>
@@ -3130,10 +3132,10 @@
         <v>59</v>
       </c>
       <c r="B71" t="s">
+        <v>254</v>
+      </c>
+      <c r="C71" t="s">
         <v>255</v>
-      </c>
-      <c r="C71" t="s">
-        <v>256</v>
       </c>
       <c r="D71" t="s">
         <v>0</v>
@@ -3156,16 +3158,16 @@
         <v>60</v>
       </c>
       <c r="B72" t="s">
+        <v>256</v>
+      </c>
+      <c r="C72" t="s">
         <v>257</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>258</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>259</v>
-      </c>
-      <c r="E72" t="s">
-        <v>260</v>
       </c>
       <c r="F72" t="s">
         <v>0</v>
@@ -3182,10 +3184,10 @@
         <v>61</v>
       </c>
       <c r="B73" t="s">
+        <v>260</v>
+      </c>
+      <c r="C73" t="s">
         <v>261</v>
-      </c>
-      <c r="C73" t="s">
-        <v>262</v>
       </c>
       <c r="D73" t="s">
         <v>0</v>
@@ -3208,16 +3210,16 @@
         <v>62</v>
       </c>
       <c r="B74" t="s">
+        <v>262</v>
+      </c>
+      <c r="C74" t="s">
         <v>263</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>264</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>265</v>
-      </c>
-      <c r="E74" t="s">
-        <v>266</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -3234,13 +3236,13 @@
         <v>63</v>
       </c>
       <c r="B75" t="s">
+        <v>266</v>
+      </c>
+      <c r="C75" t="s">
         <v>267</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>268</v>
-      </c>
-      <c r="D75" t="s">
-        <v>269</v>
       </c>
       <c r="E75" t="s">
         <v>0</v>
@@ -3260,16 +3262,16 @@
         <v>64</v>
       </c>
       <c r="B76" t="s">
+        <v>269</v>
+      </c>
+      <c r="C76" t="s">
         <v>270</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>271</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>272</v>
-      </c>
-      <c r="E76" t="s">
-        <v>273</v>
       </c>
       <c r="F76" t="s">
         <v>0</v>
@@ -3286,10 +3288,10 @@
         <v>65</v>
       </c>
       <c r="B77" t="s">
+        <v>273</v>
+      </c>
+      <c r="C77" t="s">
         <v>274</v>
-      </c>
-      <c r="C77" t="s">
-        <v>275</v>
       </c>
       <c r="D77" t="s">
         <v>0</v>
@@ -3338,10 +3340,10 @@
         <v>67</v>
       </c>
       <c r="B79" t="s">
+        <v>275</v>
+      </c>
+      <c r="C79" t="s">
         <v>276</v>
-      </c>
-      <c r="C79" t="s">
-        <v>277</v>
       </c>
       <c r="D79" t="s">
         <v>0</v>
@@ -3361,19 +3363,19 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="B80" t="s">
+        <v>277</v>
+      </c>
+      <c r="C80" t="s">
         <v>278</v>
       </c>
-      <c r="C80" t="s">
-        <v>279</v>
-      </c>
       <c r="D80" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F80" t="s">
         <v>0</v>
@@ -3387,13 +3389,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C81" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D81" t="s">
         <v>0</v>
@@ -3413,19 +3415,19 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B82" t="s">
+        <v>281</v>
+      </c>
+      <c r="C82" t="s">
+        <v>282</v>
+      </c>
+      <c r="D82" t="s">
         <v>283</v>
       </c>
-      <c r="C82" t="s">
+      <c r="E82" t="s">
         <v>284</v>
-      </c>
-      <c r="D82" t="s">
-        <v>285</v>
-      </c>
-      <c r="E82" t="s">
-        <v>286</v>
       </c>
       <c r="F82" t="s">
         <v>0</v>
@@ -3439,19 +3441,19 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B83" t="s">
+        <v>285</v>
+      </c>
+      <c r="C83" t="s">
+        <v>286</v>
+      </c>
+      <c r="D83" t="s">
         <v>287</v>
       </c>
-      <c r="C83" t="s">
+      <c r="E83" t="s">
         <v>288</v>
-      </c>
-      <c r="D83" t="s">
-        <v>289</v>
-      </c>
-      <c r="E83" t="s">
-        <v>290</v>
       </c>
       <c r="F83" t="s">
         <v>0</v>
